--- a/設計書/画面レイアウト/掲示板投稿画面.xlsx
+++ b/設計書/画面レイアウト/掲示板投稿画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makam\Desktop\nuko\設計書\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E294BBC4-B49A-49E4-9CAA-0E27BC13E9FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D921858F-0D1B-426A-A02A-ABD8903A152A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="掲示板投稿" sheetId="12" r:id="rId1"/>
@@ -497,13 +497,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>9月10日</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
+    <t>2019/9/10</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -739,7 +733,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,43 +789,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -850,6 +811,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,14 +870,50 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4591,60 +4603,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4:AB5"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.125" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08984375" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.08984375" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -4686,153 +4698,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="36" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="36" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="36" t="s">
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="36" t="s">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="36" t="s">
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="38"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="60"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="52" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="54" t="s">
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="52" t="s">
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="52" t="s">
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="40" t="s">
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="40" t="s">
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="42"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="31"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="45"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="34"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -6830,8 +6842,8 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="10"/>
       <c r="S57" s="9"/>
@@ -6972,61 +6984,61 @@
       <c r="AK60" s="16"/>
     </row>
     <row r="61" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="40" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="40" t="s">
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="40" t="s">
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N61" s="42"/>
-      <c r="O61" s="40" t="s">
+      <c r="N61" s="31"/>
+      <c r="O61" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P61" s="42"/>
+      <c r="P61" s="31"/>
       <c r="Q61" s="39" t="s">
         <v>14</v>
       </c>
       <c r="R61" s="39"/>
-      <c r="S61" s="40" t="s">
+      <c r="S61" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="T61" s="41"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="40" t="s">
+      <c r="T61" s="30"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W61" s="41"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="40" t="s">
+      <c r="W61" s="30"/>
+      <c r="X61" s="31"/>
+      <c r="Y61" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z61" s="41"/>
-      <c r="AA61" s="41"/>
-      <c r="AB61" s="41"/>
-      <c r="AC61" s="41"/>
-      <c r="AD61" s="41"/>
-      <c r="AE61" s="41"/>
-      <c r="AF61" s="41"/>
-      <c r="AG61" s="41"/>
-      <c r="AH61" s="41"/>
-      <c r="AI61" s="41"/>
-      <c r="AJ61" s="41"/>
-      <c r="AK61" s="42"/>
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="30"/>
+      <c r="AE61" s="30"/>
+      <c r="AF61" s="30"/>
+      <c r="AG61" s="30"/>
+      <c r="AH61" s="30"/>
+      <c r="AI61" s="30"/>
+      <c r="AJ61" s="30"/>
+      <c r="AK61" s="31"/>
       <c r="AL61" s="24"/>
       <c r="AM61" s="24"/>
       <c r="AN61" s="24"/>
@@ -7035,43 +7047,43 @@
       <c r="AQ61" s="24"/>
     </row>
     <row r="62" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A62" s="43"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="45"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="34"/>
       <c r="Q62" s="39"/>
       <c r="R62" s="39"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="44"/>
-      <c r="U62" s="45"/>
-      <c r="V62" s="43"/>
-      <c r="W62" s="44"/>
-      <c r="X62" s="45"/>
-      <c r="Y62" s="43"/>
-      <c r="Z62" s="44"/>
-      <c r="AA62" s="44"/>
-      <c r="AB62" s="44"/>
-      <c r="AC62" s="44"/>
-      <c r="AD62" s="44"/>
-      <c r="AE62" s="44"/>
-      <c r="AF62" s="44"/>
-      <c r="AG62" s="44"/>
-      <c r="AH62" s="44"/>
-      <c r="AI62" s="44"/>
-      <c r="AJ62" s="44"/>
-      <c r="AK62" s="45"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="33"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="33"/>
+      <c r="AI62" s="33"/>
+      <c r="AJ62" s="33"/>
+      <c r="AK62" s="34"/>
       <c r="AL62" s="24"/>
       <c r="AM62" s="24"/>
       <c r="AN62" s="24"/>
@@ -7083,29 +7095,29 @@
       <c r="A63" s="26">
         <v>1</v>
       </c>
-      <c r="B63" s="27"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
       <c r="I63" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="28"/>
       <c r="M63" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N63" s="27"/>
+      <c r="N63" s="28"/>
       <c r="O63" s="26">
         <v>128</v>
       </c>
-      <c r="P63" s="27"/>
+      <c r="P63" s="28"/>
       <c r="Q63" s="39" t="s">
         <v>16</v>
       </c>
@@ -7113,28 +7125,28 @@
       <c r="S63" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="T63" s="28"/>
-      <c r="U63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="28"/>
       <c r="V63" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="W63" s="28"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="26" t="s">
+      <c r="W63" s="27"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="28"/>
-      <c r="AC63" s="28"/>
-      <c r="AD63" s="28"/>
-      <c r="AE63" s="28"/>
-      <c r="AF63" s="28"/>
-      <c r="AG63" s="28"/>
-      <c r="AH63" s="28"/>
-      <c r="AI63" s="28"/>
-      <c r="AJ63" s="28"/>
-      <c r="AK63" s="27"/>
+      <c r="Z63" s="64"/>
+      <c r="AA63" s="64"/>
+      <c r="AB63" s="64"/>
+      <c r="AC63" s="64"/>
+      <c r="AD63" s="64"/>
+      <c r="AE63" s="64"/>
+      <c r="AF63" s="64"/>
+      <c r="AG63" s="64"/>
+      <c r="AH63" s="64"/>
+      <c r="AI63" s="64"/>
+      <c r="AJ63" s="64"/>
+      <c r="AK63" s="65"/>
       <c r="AL63" s="24"/>
       <c r="AM63" s="24"/>
       <c r="AN63" s="24"/>
@@ -7146,29 +7158,29 @@
       <c r="A64" s="26">
         <v>2</v>
       </c>
-      <c r="B64" s="27"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
       <c r="I64" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="28"/>
       <c r="M64" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N64" s="27"/>
+      <c r="N64" s="28"/>
       <c r="O64" s="26">
         <v>128</v>
       </c>
-      <c r="P64" s="27"/>
+      <c r="P64" s="28"/>
       <c r="Q64" s="39" t="s">
         <v>16</v>
       </c>
@@ -7176,28 +7188,28 @@
       <c r="S64" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="T64" s="28"/>
-      <c r="U64" s="27"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="28"/>
       <c r="V64" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="W64" s="28"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="26" t="s">
+      <c r="W64" s="27"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="28"/>
-      <c r="AE64" s="28"/>
-      <c r="AF64" s="28"/>
-      <c r="AG64" s="28"/>
-      <c r="AH64" s="28"/>
-      <c r="AI64" s="28"/>
-      <c r="AJ64" s="28"/>
-      <c r="AK64" s="27"/>
+      <c r="Z64" s="64"/>
+      <c r="AA64" s="64"/>
+      <c r="AB64" s="64"/>
+      <c r="AC64" s="64"/>
+      <c r="AD64" s="64"/>
+      <c r="AE64" s="64"/>
+      <c r="AF64" s="64"/>
+      <c r="AG64" s="64"/>
+      <c r="AH64" s="64"/>
+      <c r="AI64" s="64"/>
+      <c r="AJ64" s="64"/>
+      <c r="AK64" s="65"/>
       <c r="AL64" s="24"/>
       <c r="AM64" s="24"/>
       <c r="AN64" s="24"/>
@@ -7209,58 +7221,58 @@
       <c r="A65" s="26">
         <v>3</v>
       </c>
-      <c r="B65" s="27"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
       <c r="I65" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="28"/>
       <c r="M65" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N65" s="27"/>
+      <c r="N65" s="28"/>
       <c r="O65" s="26">
         <v>128</v>
       </c>
-      <c r="P65" s="27"/>
+      <c r="P65" s="28"/>
       <c r="Q65" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R65" s="27"/>
+      <c r="R65" s="28"/>
       <c r="S65" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="T65" s="28"/>
-      <c r="U65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="28"/>
       <c r="V65" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="W65" s="28"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="26" t="s">
+      <c r="W65" s="27"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="28"/>
-      <c r="AE65" s="28"/>
-      <c r="AF65" s="28"/>
-      <c r="AG65" s="28"/>
-      <c r="AH65" s="28"/>
-      <c r="AI65" s="28"/>
-      <c r="AJ65" s="28"/>
-      <c r="AK65" s="27"/>
+      <c r="Z65" s="64"/>
+      <c r="AA65" s="64"/>
+      <c r="AB65" s="64"/>
+      <c r="AC65" s="64"/>
+      <c r="AD65" s="64"/>
+      <c r="AE65" s="64"/>
+      <c r="AF65" s="64"/>
+      <c r="AG65" s="64"/>
+      <c r="AH65" s="64"/>
+      <c r="AI65" s="64"/>
+      <c r="AJ65" s="64"/>
+      <c r="AK65" s="65"/>
       <c r="AL65" s="24"/>
       <c r="AM65" s="24"/>
       <c r="AN65" s="24"/>
@@ -7272,56 +7284,56 @@
       <c r="A66" s="26">
         <v>4</v>
       </c>
-      <c r="B66" s="27"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
       <c r="I66" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="28"/>
       <c r="M66" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N66" s="27"/>
+      <c r="N66" s="28"/>
       <c r="O66" s="26">
         <v>128</v>
       </c>
-      <c r="P66" s="27"/>
+      <c r="P66" s="28"/>
       <c r="Q66" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R66" s="27"/>
+      <c r="R66" s="28"/>
       <c r="S66" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="T66" s="28"/>
-      <c r="U66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="28"/>
       <c r="V66" s="26"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="26" t="s">
+      <c r="W66" s="27"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="28"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="28"/>
-      <c r="AE66" s="28"/>
-      <c r="AF66" s="28"/>
-      <c r="AG66" s="28"/>
-      <c r="AH66" s="28"/>
-      <c r="AI66" s="28"/>
-      <c r="AJ66" s="28"/>
-      <c r="AK66" s="27"/>
+      <c r="Z66" s="64"/>
+      <c r="AA66" s="64"/>
+      <c r="AB66" s="64"/>
+      <c r="AC66" s="64"/>
+      <c r="AD66" s="64"/>
+      <c r="AE66" s="64"/>
+      <c r="AF66" s="64"/>
+      <c r="AG66" s="64"/>
+      <c r="AH66" s="64"/>
+      <c r="AI66" s="64"/>
+      <c r="AJ66" s="64"/>
+      <c r="AK66" s="65"/>
       <c r="AL66" s="24"/>
       <c r="AM66" s="24"/>
       <c r="AN66" s="24"/>
@@ -7333,7 +7345,7 @@
       <c r="A67" s="26">
         <v>5</v>
       </c>
-      <c r="B67" s="27"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="39" t="s">
         <v>36</v>
       </c>
@@ -7355,7 +7367,7 @@
       <c r="O67" s="26">
         <v>128</v>
       </c>
-      <c r="P67" s="27"/>
+      <c r="P67" s="28"/>
       <c r="Q67" s="39" t="s">
         <v>16</v>
       </c>
@@ -7363,28 +7375,28 @@
       <c r="S67" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="T67" s="28"/>
-      <c r="U67" s="27"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="28"/>
       <c r="V67" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="W67" s="28"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="26" t="s">
+      <c r="W67" s="27"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="Z67" s="28"/>
-      <c r="AA67" s="28"/>
-      <c r="AB67" s="28"/>
-      <c r="AC67" s="28"/>
-      <c r="AD67" s="28"/>
-      <c r="AE67" s="28"/>
-      <c r="AF67" s="28"/>
-      <c r="AG67" s="28"/>
-      <c r="AH67" s="28"/>
-      <c r="AI67" s="28"/>
-      <c r="AJ67" s="28"/>
-      <c r="AK67" s="27"/>
+      <c r="Z67" s="64"/>
+      <c r="AA67" s="64"/>
+      <c r="AB67" s="64"/>
+      <c r="AC67" s="64"/>
+      <c r="AD67" s="64"/>
+      <c r="AE67" s="64"/>
+      <c r="AF67" s="64"/>
+      <c r="AG67" s="64"/>
+      <c r="AH67" s="64"/>
+      <c r="AI67" s="64"/>
+      <c r="AJ67" s="64"/>
+      <c r="AK67" s="65"/>
       <c r="AL67" s="24"/>
       <c r="AM67" s="24"/>
       <c r="AN67" s="24"/>
@@ -7396,7 +7408,7 @@
       <c r="A68" s="26">
         <v>6</v>
       </c>
-      <c r="B68" s="27"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="39" t="s">
         <v>37</v>
       </c>
@@ -7418,7 +7430,7 @@
       <c r="O68" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P68" s="27"/>
+      <c r="P68" s="28"/>
       <c r="Q68" s="39" t="s">
         <v>16</v>
       </c>
@@ -7426,28 +7438,28 @@
       <c r="S68" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="T68" s="28"/>
-      <c r="U68" s="27"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="28"/>
       <c r="V68" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="W68" s="28"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="26" t="s">
+      <c r="W68" s="27"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="28"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="28"/>
-      <c r="AE68" s="28"/>
-      <c r="AF68" s="28"/>
-      <c r="AG68" s="28"/>
-      <c r="AH68" s="28"/>
-      <c r="AI68" s="28"/>
-      <c r="AJ68" s="28"/>
-      <c r="AK68" s="27"/>
+      <c r="Z68" s="64"/>
+      <c r="AA68" s="64"/>
+      <c r="AB68" s="64"/>
+      <c r="AC68" s="64"/>
+      <c r="AD68" s="64"/>
+      <c r="AE68" s="64"/>
+      <c r="AF68" s="64"/>
+      <c r="AG68" s="64"/>
+      <c r="AH68" s="64"/>
+      <c r="AI68" s="64"/>
+      <c r="AJ68" s="64"/>
+      <c r="AK68" s="65"/>
       <c r="AL68" s="24"/>
       <c r="AM68" s="24"/>
       <c r="AN68" s="24"/>
@@ -7459,7 +7471,7 @@
       <c r="A69" s="26">
         <v>7</v>
       </c>
-      <c r="B69" s="27"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="39" t="s">
         <v>38</v>
       </c>
@@ -7481,7 +7493,7 @@
       <c r="O69" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P69" s="27"/>
+      <c r="P69" s="28"/>
       <c r="Q69" s="39" t="s">
         <v>16</v>
       </c>
@@ -7489,28 +7501,28 @@
       <c r="S69" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="T69" s="28"/>
-      <c r="U69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="28"/>
       <c r="V69" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="28"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="26" t="s">
+      <c r="W69" s="27"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="Z69" s="28"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="28"/>
-      <c r="AC69" s="28"/>
-      <c r="AD69" s="28"/>
-      <c r="AE69" s="28"/>
-      <c r="AF69" s="28"/>
-      <c r="AG69" s="28"/>
-      <c r="AH69" s="28"/>
-      <c r="AI69" s="28"/>
-      <c r="AJ69" s="28"/>
-      <c r="AK69" s="27"/>
+      <c r="Z69" s="64"/>
+      <c r="AA69" s="64"/>
+      <c r="AB69" s="64"/>
+      <c r="AC69" s="64"/>
+      <c r="AD69" s="64"/>
+      <c r="AE69" s="64"/>
+      <c r="AF69" s="64"/>
+      <c r="AG69" s="64"/>
+      <c r="AH69" s="64"/>
+      <c r="AI69" s="64"/>
+      <c r="AJ69" s="64"/>
+      <c r="AK69" s="65"/>
       <c r="AL69" s="24"/>
       <c r="AM69" s="24"/>
       <c r="AN69" s="24"/>
@@ -7519,217 +7531,217 @@
       <c r="AQ69" s="24"/>
     </row>
     <row r="70" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A70" s="60">
+      <c r="A70" s="35">
         <v>8</v>
       </c>
-      <c r="B70" s="61"/>
-      <c r="C70" s="60" t="s">
+      <c r="B70" s="36"/>
+      <c r="C70" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="60" t="s">
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="60" t="s">
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="N70" s="61"/>
-      <c r="O70" s="60" t="s">
+      <c r="N70" s="36"/>
+      <c r="O70" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="60" t="s">
+      <c r="P70" s="36"/>
+      <c r="Q70" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="R70" s="61"/>
-      <c r="S70" s="60" t="s">
+      <c r="R70" s="36"/>
+      <c r="S70" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="T70" s="62"/>
-      <c r="U70" s="62"/>
-      <c r="V70" s="31" t="s">
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="W70" s="31"/>
-      <c r="X70" s="31"/>
-      <c r="Y70" s="60" t="s">
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Z70" s="62"/>
-      <c r="AA70" s="62"/>
-      <c r="AB70" s="62"/>
-      <c r="AC70" s="62"/>
-      <c r="AD70" s="62"/>
-      <c r="AE70" s="62"/>
-      <c r="AF70" s="62"/>
-      <c r="AG70" s="62"/>
-      <c r="AH70" s="62"/>
-      <c r="AI70" s="62"/>
-      <c r="AJ70" s="62"/>
-      <c r="AK70" s="61"/>
+      <c r="Z70" s="67"/>
+      <c r="AA70" s="67"/>
+      <c r="AB70" s="67"/>
+      <c r="AC70" s="67"/>
+      <c r="AD70" s="67"/>
+      <c r="AE70" s="67"/>
+      <c r="AF70" s="67"/>
+      <c r="AG70" s="67"/>
+      <c r="AH70" s="67"/>
+      <c r="AI70" s="67"/>
+      <c r="AJ70" s="67"/>
+      <c r="AK70" s="68"/>
     </row>
     <row r="71" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A71" s="60"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="60"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="60"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="60"/>
-      <c r="T71" s="62"/>
-      <c r="U71" s="62"/>
-      <c r="V71" s="31"/>
-      <c r="W71" s="31"/>
-      <c r="X71" s="31"/>
-      <c r="Y71" s="60"/>
-      <c r="Z71" s="62"/>
-      <c r="AA71" s="62"/>
-      <c r="AB71" s="62"/>
-      <c r="AC71" s="62"/>
-      <c r="AD71" s="62"/>
-      <c r="AE71" s="62"/>
-      <c r="AF71" s="62"/>
-      <c r="AG71" s="62"/>
-      <c r="AH71" s="62"/>
-      <c r="AI71" s="62"/>
-      <c r="AJ71" s="62"/>
-      <c r="AK71" s="61"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="37"/>
+      <c r="AA71" s="37"/>
+      <c r="AB71" s="37"/>
+      <c r="AC71" s="37"/>
+      <c r="AD71" s="37"/>
+      <c r="AE71" s="37"/>
+      <c r="AF71" s="37"/>
+      <c r="AG71" s="37"/>
+      <c r="AH71" s="37"/>
+      <c r="AI71" s="37"/>
+      <c r="AJ71" s="37"/>
+      <c r="AK71" s="36"/>
     </row>
     <row r="72" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A72" s="60"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="62"/>
-      <c r="U72" s="62"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="31"/>
-      <c r="X72" s="31"/>
-      <c r="Y72" s="60"/>
-      <c r="Z72" s="62"/>
-      <c r="AA72" s="62"/>
-      <c r="AB72" s="62"/>
-      <c r="AC72" s="62"/>
-      <c r="AD72" s="62"/>
-      <c r="AE72" s="62"/>
-      <c r="AF72" s="62"/>
-      <c r="AG72" s="62"/>
-      <c r="AH72" s="62"/>
-      <c r="AI72" s="62"/>
-      <c r="AJ72" s="62"/>
-      <c r="AK72" s="61"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="37"/>
+      <c r="AA72" s="37"/>
+      <c r="AB72" s="37"/>
+      <c r="AC72" s="37"/>
+      <c r="AD72" s="37"/>
+      <c r="AE72" s="37"/>
+      <c r="AF72" s="37"/>
+      <c r="AG72" s="37"/>
+      <c r="AH72" s="37"/>
+      <c r="AI72" s="37"/>
+      <c r="AJ72" s="37"/>
+      <c r="AK72" s="36"/>
     </row>
     <row r="73" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A73" s="60"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="60"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="61"/>
-      <c r="S73" s="60"/>
-      <c r="T73" s="62"/>
-      <c r="U73" s="62"/>
-      <c r="V73" s="31"/>
-      <c r="W73" s="31"/>
-      <c r="X73" s="31"/>
-      <c r="Y73" s="60"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="62"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
-      <c r="AD73" s="62"/>
-      <c r="AE73" s="62"/>
-      <c r="AF73" s="62"/>
-      <c r="AG73" s="62"/>
-      <c r="AH73" s="62"/>
-      <c r="AI73" s="62"/>
-      <c r="AJ73" s="62"/>
-      <c r="AK73" s="61"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="37"/>
+      <c r="AA73" s="37"/>
+      <c r="AB73" s="37"/>
+      <c r="AC73" s="37"/>
+      <c r="AD73" s="37"/>
+      <c r="AE73" s="37"/>
+      <c r="AF73" s="37"/>
+      <c r="AG73" s="37"/>
+      <c r="AH73" s="37"/>
+      <c r="AI73" s="37"/>
+      <c r="AJ73" s="37"/>
+      <c r="AK73" s="36"/>
     </row>
     <row r="74" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A74" s="60"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="60"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="60"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="60"/>
-      <c r="R74" s="61"/>
-      <c r="S74" s="60"/>
-      <c r="T74" s="62"/>
-      <c r="U74" s="62"/>
-      <c r="V74" s="31"/>
-      <c r="W74" s="31"/>
-      <c r="X74" s="31"/>
-      <c r="Y74" s="60"/>
-      <c r="Z74" s="62"/>
-      <c r="AA74" s="62"/>
-      <c r="AB74" s="62"/>
-      <c r="AC74" s="62"/>
-      <c r="AD74" s="62"/>
-      <c r="AE74" s="62"/>
-      <c r="AF74" s="62"/>
-      <c r="AG74" s="62"/>
-      <c r="AH74" s="62"/>
-      <c r="AI74" s="62"/>
-      <c r="AJ74" s="62"/>
-      <c r="AK74" s="61"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="37"/>
+      <c r="AA74" s="37"/>
+      <c r="AB74" s="37"/>
+      <c r="AC74" s="37"/>
+      <c r="AD74" s="37"/>
+      <c r="AE74" s="37"/>
+      <c r="AF74" s="37"/>
+      <c r="AG74" s="37"/>
+      <c r="AH74" s="37"/>
+      <c r="AI74" s="37"/>
+      <c r="AJ74" s="37"/>
+      <c r="AK74" s="36"/>
     </row>
     <row r="77" spans="1:43" ht="12.75" customHeight="1">
       <c r="B77" s="17"/>
@@ -7738,208 +7750,208 @@
       </c>
     </row>
     <row r="78" spans="1:43" ht="12.75" customHeight="1">
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29" t="s">
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="61"/>
+      <c r="U78" s="61"/>
+      <c r="V78" s="61"/>
+      <c r="W78" s="61"/>
+      <c r="X78" s="61"/>
     </row>
     <row r="79" spans="1:43" ht="12.75" customHeight="1">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30" t="s">
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="30"/>
-      <c r="P79" s="30"/>
-      <c r="Q79" s="30"/>
-      <c r="R79" s="30"/>
-      <c r="S79" s="30"/>
-      <c r="T79" s="30"/>
-      <c r="U79" s="30"/>
-      <c r="V79" s="30"/>
-      <c r="W79" s="30"/>
-      <c r="X79" s="30"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="62"/>
+      <c r="S79" s="62"/>
+      <c r="T79" s="62"/>
+      <c r="U79" s="62"/>
+      <c r="V79" s="62"/>
+      <c r="W79" s="62"/>
+      <c r="X79" s="62"/>
     </row>
     <row r="80" spans="1:43" ht="12.75" customHeight="1">
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30" t="s">
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="30"/>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="30"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="30"/>
-      <c r="V80" s="30"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="30"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="62"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="62"/>
+      <c r="Q80" s="62"/>
+      <c r="R80" s="62"/>
+      <c r="S80" s="62"/>
+      <c r="T80" s="62"/>
+      <c r="U80" s="62"/>
+      <c r="V80" s="62"/>
+      <c r="W80" s="62"/>
+      <c r="X80" s="62"/>
     </row>
     <row r="81" spans="3:24" ht="12.75" customHeight="1">
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="30"/>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="30"/>
-      <c r="R81" s="30"/>
-      <c r="S81" s="30"/>
-      <c r="T81" s="30"/>
-      <c r="U81" s="30"/>
-      <c r="V81" s="30"/>
-      <c r="W81" s="30"/>
-      <c r="X81" s="30"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="62"/>
+      <c r="L81" s="62"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="62"/>
+      <c r="O81" s="62"/>
+      <c r="P81" s="62"/>
+      <c r="Q81" s="62"/>
+      <c r="R81" s="62"/>
+      <c r="S81" s="62"/>
+      <c r="T81" s="62"/>
+      <c r="U81" s="62"/>
+      <c r="V81" s="62"/>
+      <c r="W81" s="62"/>
+      <c r="X81" s="62"/>
     </row>
     <row r="82" spans="3:24" ht="12.75" customHeight="1">
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="30"/>
-      <c r="U82" s="30"/>
-      <c r="V82" s="30"/>
-      <c r="W82" s="30"/>
-      <c r="X82" s="30"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="62"/>
+      <c r="S82" s="62"/>
+      <c r="T82" s="62"/>
+      <c r="U82" s="62"/>
+      <c r="V82" s="62"/>
+      <c r="W82" s="62"/>
+      <c r="X82" s="62"/>
     </row>
     <row r="83" spans="3:24" ht="12.75" customHeight="1">
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="30"/>
-      <c r="U83" s="30"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="30"/>
-      <c r="X83" s="30"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="62"/>
+      <c r="S83" s="62"/>
+      <c r="T83" s="62"/>
+      <c r="U83" s="62"/>
+      <c r="V83" s="62"/>
+      <c r="W83" s="62"/>
+      <c r="X83" s="62"/>
     </row>
     <row r="84" spans="3:24" ht="12.75" customHeight="1">
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="30"/>
-      <c r="W84" s="30"/>
-      <c r="X84" s="30"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
+      <c r="N84" s="62"/>
+      <c r="O84" s="62"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="62"/>
+      <c r="S84" s="62"/>
+      <c r="T84" s="62"/>
+      <c r="U84" s="62"/>
+      <c r="V84" s="62"/>
+      <c r="W84" s="62"/>
+      <c r="X84" s="62"/>
     </row>
     <row r="85" spans="3:24" ht="12.75" customHeight="1">
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
-      <c r="P85" s="31"/>
-      <c r="Q85" s="31"/>
-      <c r="R85" s="31"/>
-      <c r="S85" s="31"/>
-      <c r="T85" s="31"/>
-      <c r="U85" s="31"/>
-      <c r="V85" s="31"/>
-      <c r="W85" s="31"/>
-      <c r="X85" s="31"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="38"/>
     </row>
     <row r="87" spans="3:24" ht="12.75" customHeight="1">
       <c r="D87" s="25" t="s">
@@ -7948,112 +7960,31 @@
     </row>
   </sheetData>
   <mergeCells count="151">
-    <mergeCell ref="Y69:AK69"/>
-    <mergeCell ref="Y68:AK68"/>
-    <mergeCell ref="Y67:AK67"/>
-    <mergeCell ref="Y66:AK66"/>
-    <mergeCell ref="Y65:AK65"/>
-    <mergeCell ref="Y61:AK62"/>
-    <mergeCell ref="Y64:AK64"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="O61:P62"/>
-    <mergeCell ref="S61:U62"/>
-    <mergeCell ref="V61:X62"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="Y74:AK74"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Y73:AK73"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Y72:AK72"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Y71:AK71"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Y70:AK70"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="I78:X78"/>
+    <mergeCell ref="I79:X79"/>
+    <mergeCell ref="I80:X80"/>
+    <mergeCell ref="I81:X81"/>
+    <mergeCell ref="I82:X82"/>
+    <mergeCell ref="I83:X83"/>
+    <mergeCell ref="I84:X84"/>
+    <mergeCell ref="I85:X85"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="C63:H63"/>
     <mergeCell ref="I63:L63"/>
@@ -8074,31 +8005,112 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y63:AK63"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="I78:X78"/>
-    <mergeCell ref="I79:X79"/>
-    <mergeCell ref="I80:X80"/>
-    <mergeCell ref="I81:X81"/>
-    <mergeCell ref="I82:X82"/>
-    <mergeCell ref="I83:X83"/>
-    <mergeCell ref="I84:X84"/>
-    <mergeCell ref="I85:X85"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Y70:AK70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Y71:AK71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Y72:AK72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Y73:AK73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="Y74:AK74"/>
+    <mergeCell ref="Y69:AK69"/>
+    <mergeCell ref="Y68:AK68"/>
+    <mergeCell ref="Y67:AK67"/>
+    <mergeCell ref="Y66:AK66"/>
+    <mergeCell ref="Y65:AK65"/>
+    <mergeCell ref="Y61:AK62"/>
+    <mergeCell ref="Y64:AK64"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="O61:P62"/>
+    <mergeCell ref="S61:U62"/>
+    <mergeCell ref="V61:X62"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="V64:X64"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
